--- a/Src/SamplesByPlatforms/Xceed.Blazor.Workbooks.Sample/styled_workbook.xlsx
+++ b/Src/SamplesByPlatforms/Xceed.Blazor.Workbooks.Sample/styled_workbook.xlsx
@@ -5,9 +5,9 @@
     <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Human Resources" sheetId="1" r:id="R6246e40df47b48b5"/>
-    <sheet name="Technical Department" sheetId="2" r:id="R280da6b4e41d4f6c"/>
-    <sheet name="Warehouse" sheetId="3" r:id="Rf6ef289cbc224edb"/>
+    <sheet name="Human Resources" sheetId="1" r:id="Rba0248e361e1495d"/>
+    <sheet name="Technical Department" sheetId="2" r:id="R8f53813b70b34421"/>
+    <sheet name="Warehouse" sheetId="3" r:id="R4f1a3426e03c41b6"/>
   </sheets>
 </workbook>
 </file>
@@ -586,40 +586,40 @@
         <v>17</v>
       </c>
       <c r="E4" s="4">
+        <v>114</v>
+      </c>
+      <c r="F4" s="4">
+        <v>127</v>
+      </c>
+      <c r="G4" s="4">
+        <v>106</v>
+      </c>
+      <c r="H4" s="4">
+        <v>122</v>
+      </c>
+      <c r="I4" s="4">
+        <v>63</v>
+      </c>
+      <c r="J4" s="4">
         <v>144</v>
       </c>
-      <c r="F4" s="4">
-        <v>135</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4">
-        <v>72</v>
-      </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <v>65</v>
       </c>
-      <c r="J4" s="4">
-        <v>74</v>
-      </c>
-      <c r="K4" s="4">
-        <v>140</v>
-      </c>
       <c r="L4" s="4">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="M4" s="4">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="N4" s="4">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="O4" s="4">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="P4" s="4">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="5">
         <f>SUM(D4:O4)</f>
@@ -636,40 +636,40 @@
         <v>19</v>
       </c>
       <c r="E5" s="4">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F5" s="4">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="G5" s="4">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H5" s="4">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I5" s="4">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="J5" s="4">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K5" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L5" s="4">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M5" s="4">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="N5" s="4">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="O5" s="4">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="P5" s="4">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="5">
         <f>SUM(D5:O5)</f>
@@ -686,40 +686,40 @@
         <v>21</v>
       </c>
       <c r="E6" s="4">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="F6" s="4">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="H6" s="4">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="I6" s="4">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="J6" s="4">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K6" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L6" s="4">
+        <v>109</v>
+      </c>
+      <c r="M6" s="4">
+        <v>52</v>
+      </c>
+      <c r="N6" s="4">
+        <v>86</v>
+      </c>
+      <c r="O6" s="4">
+        <v>106</v>
+      </c>
+      <c r="P6" s="4">
         <v>105</v>
-      </c>
-      <c r="M6" s="4">
-        <v>57</v>
-      </c>
-      <c r="N6" s="4">
-        <v>55</v>
-      </c>
-      <c r="O6" s="4">
-        <v>82</v>
-      </c>
-      <c r="P6" s="4">
-        <v>76</v>
       </c>
       <c r="Q6" s="5">
         <f>SUM(D6:O6)</f>
@@ -736,40 +736,40 @@
         <v>23</v>
       </c>
       <c r="E7" s="4">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="H7" s="4">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I7" s="4">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="J7" s="4">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K7" s="4">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="L7" s="4">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="M7" s="4">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="N7" s="4">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="O7" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P7" s="4">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="5">
         <f>SUM(D7:O7)</f>
@@ -786,40 +786,40 @@
         <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="F8" s="4">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="G8" s="4">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="H8" s="4">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="I8" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J8" s="4">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="K8" s="4">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="L8" s="4">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="M8" s="4">
         <v>117</v>
       </c>
       <c r="N8" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" s="4">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="P8" s="4">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="5">
         <f>SUM(D8:O8)</f>
@@ -836,40 +836,40 @@
         <v>27</v>
       </c>
       <c r="E9" s="4">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="F9" s="4">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G9" s="4">
         <v>103</v>
       </c>
       <c r="H9" s="4">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J9" s="4">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="K9" s="4">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="L9" s="4">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="M9" s="4">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N9" s="4">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O9" s="4">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="P9" s="4">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="5">
         <f>SUM(D9:O9)</f>
@@ -886,40 +886,40 @@
         <v>29</v>
       </c>
       <c r="E10" s="4">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="F10" s="4">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G10" s="4">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="H10" s="4">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I10" s="4">
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="J10" s="4">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K10" s="4">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="L10" s="4">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="M10" s="4">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N10" s="4">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="O10" s="4">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="P10" s="4">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(D10:O10)</f>
@@ -936,40 +936,40 @@
         <v>31</v>
       </c>
       <c r="E11" s="4">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="G11" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H11" s="4">
+        <v>115</v>
+      </c>
+      <c r="I11" s="4">
+        <v>65</v>
+      </c>
+      <c r="J11" s="4">
+        <v>108</v>
+      </c>
+      <c r="K11" s="4">
+        <v>131</v>
+      </c>
+      <c r="L11" s="4">
+        <v>117</v>
+      </c>
+      <c r="M11" s="4">
+        <v>130</v>
+      </c>
+      <c r="N11" s="4">
+        <v>119</v>
+      </c>
+      <c r="O11" s="4">
         <v>145</v>
       </c>
-      <c r="I11" s="4">
-        <v>56</v>
-      </c>
-      <c r="J11" s="4">
-        <v>71</v>
-      </c>
-      <c r="K11" s="4">
-        <v>83</v>
-      </c>
-      <c r="L11" s="4">
-        <v>112</v>
-      </c>
-      <c r="M11" s="4">
-        <v>139</v>
-      </c>
-      <c r="N11" s="4">
-        <v>59</v>
-      </c>
-      <c r="O11" s="4">
-        <v>73</v>
-      </c>
       <c r="P11" s="4">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="5">
         <f>SUM(D11:O11)</f>
@@ -986,40 +986,40 @@
         <v>33</v>
       </c>
       <c r="E12" s="4">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F12" s="4">
+        <v>95</v>
+      </c>
+      <c r="G12" s="4">
         <v>77</v>
       </c>
-      <c r="G12" s="4">
-        <v>95</v>
-      </c>
       <c r="H12" s="4">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I12" s="4">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J12" s="4">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="K12" s="4">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="L12" s="4">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="M12" s="4">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N12" s="4">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="O12" s="4">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="P12" s="4">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="5">
         <f>SUM(D12:O12)</f>
@@ -1036,40 +1036,40 @@
         <v>35</v>
       </c>
       <c r="E13" s="4">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="F13" s="4">
+        <v>67</v>
+      </c>
+      <c r="G13" s="4">
+        <v>63</v>
+      </c>
+      <c r="H13" s="4">
+        <v>54</v>
+      </c>
+      <c r="I13" s="4">
+        <v>106</v>
+      </c>
+      <c r="J13" s="4">
+        <v>141</v>
+      </c>
+      <c r="K13" s="4">
+        <v>112</v>
+      </c>
+      <c r="L13" s="4">
+        <v>102</v>
+      </c>
+      <c r="M13" s="4">
         <v>96</v>
       </c>
-      <c r="G13" s="4">
-        <v>98</v>
-      </c>
-      <c r="H13" s="4">
-        <v>70</v>
-      </c>
-      <c r="I13" s="4">
-        <v>111</v>
-      </c>
-      <c r="J13" s="4">
-        <v>74</v>
-      </c>
-      <c r="K13" s="4">
-        <v>66</v>
-      </c>
-      <c r="L13" s="4">
-        <v>63</v>
-      </c>
-      <c r="M13" s="4">
-        <v>85</v>
-      </c>
       <c r="N13" s="4">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="O13" s="4">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="P13" s="4">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="5">
         <f>SUM(D13:O13)</f>
@@ -1089,34 +1089,34 @@
         <v>85</v>
       </c>
       <c r="F14" s="4">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="G14" s="4">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H14" s="4">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="I14" s="4">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="J14" s="4">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K14" s="4">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="L14" s="4">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M14" s="4">
         <v>83</v>
       </c>
       <c r="N14" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="4">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="P14" s="4">
         <v>55</v>
@@ -1136,40 +1136,40 @@
         <v>39</v>
       </c>
       <c r="E15" s="4">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="F15" s="4">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="G15" s="4">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="H15" s="4">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="I15" s="4">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="J15" s="4">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="K15" s="4">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="L15" s="4">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="M15" s="4">
+        <v>59</v>
+      </c>
+      <c r="N15" s="4">
+        <v>149</v>
+      </c>
+      <c r="O15" s="4">
         <v>107</v>
       </c>
-      <c r="N15" s="4">
-        <v>77</v>
-      </c>
-      <c r="O15" s="4">
-        <v>109</v>
-      </c>
       <c r="P15" s="4">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="5">
         <f>SUM(D15:O15)</f>
@@ -1186,40 +1186,40 @@
         <v>41</v>
       </c>
       <c r="E16" s="4">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G16" s="4">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="H16" s="4">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="I16" s="4">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="J16" s="4">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="K16" s="4">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="L16" s="4">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M16" s="4">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="N16" s="4">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="O16" s="4">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="P16" s="4">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="5">
         <f>SUM(D16:O16)</f>
@@ -1236,40 +1236,40 @@
         <v>43</v>
       </c>
       <c r="E17" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G17" s="4">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="H17" s="4">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="I17" s="4">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="J17" s="4">
-        <v>61</v>
+        <v>116</v>
       </c>
       <c r="K17" s="4">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L17" s="4">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="M17" s="4">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N17" s="4">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="O17" s="4">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="P17" s="4">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="5">
         <f>SUM(D17:O17)</f>
@@ -1286,40 +1286,40 @@
         <v>45</v>
       </c>
       <c r="E18" s="4">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="F18" s="4">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G18" s="4">
         <v>55</v>
       </c>
       <c r="H18" s="4">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I18" s="4">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J18" s="4">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="K18" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L18" s="4">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="M18" s="4">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N18" s="4">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="O18" s="4">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P18" s="4">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="Q18" s="5">
         <f>SUM(D18:O18)</f>
@@ -1396,40 +1396,40 @@
         <v>17</v>
       </c>
       <c r="E4" s="4">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F4" s="4">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="G4" s="4">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="H4" s="4">
+        <v>140</v>
+      </c>
+      <c r="I4" s="4">
+        <v>135</v>
+      </c>
+      <c r="J4" s="4">
+        <v>134</v>
+      </c>
+      <c r="K4" s="4">
         <v>52</v>
       </c>
-      <c r="I4" s="4">
-        <v>136</v>
-      </c>
-      <c r="J4" s="4">
-        <v>86</v>
-      </c>
-      <c r="K4" s="4">
-        <v>114</v>
-      </c>
       <c r="L4" s="4">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="M4" s="4">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="N4" s="4">
+        <v>75</v>
+      </c>
+      <c r="O4" s="4">
         <v>100</v>
       </c>
-      <c r="O4" s="4">
-        <v>81</v>
-      </c>
       <c r="P4" s="4">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="5">
         <f>SUM(D4:O4)</f>
@@ -1446,40 +1446,40 @@
         <v>19</v>
       </c>
       <c r="E5" s="4">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="F5" s="4">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G5" s="4">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="H5" s="4">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="I5" s="4">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J5" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K5" s="4">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="L5" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="4">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="N5" s="4">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="O5" s="4">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="P5" s="4">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="5">
         <f>SUM(D5:O5)</f>
@@ -1496,40 +1496,40 @@
         <v>21</v>
       </c>
       <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>94</v>
+      </c>
+      <c r="G6" s="4">
+        <v>53</v>
+      </c>
+      <c r="H6" s="4">
         <v>106</v>
       </c>
-      <c r="F6" s="4">
-        <v>121</v>
-      </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
+        <v>104</v>
+      </c>
+      <c r="J6" s="4">
+        <v>124</v>
+      </c>
+      <c r="K6" s="4">
+        <v>92</v>
+      </c>
+      <c r="L6" s="4">
+        <v>80</v>
+      </c>
+      <c r="M6" s="4">
         <v>75</v>
       </c>
-      <c r="H6" s="4">
-        <v>146</v>
-      </c>
-      <c r="I6" s="4">
-        <v>86</v>
-      </c>
-      <c r="J6" s="4">
-        <v>136</v>
-      </c>
-      <c r="K6" s="4">
-        <v>99</v>
-      </c>
-      <c r="L6" s="4">
-        <v>58</v>
-      </c>
-      <c r="M6" s="4">
-        <v>90</v>
-      </c>
       <c r="N6" s="4">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="O6" s="4">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="P6" s="4">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="5">
         <f>SUM(D6:O6)</f>
@@ -1546,40 +1546,40 @@
         <v>23</v>
       </c>
       <c r="E7" s="4">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="F7" s="4">
+        <v>57</v>
+      </c>
+      <c r="G7" s="4">
+        <v>118</v>
+      </c>
+      <c r="H7" s="4">
+        <v>110</v>
+      </c>
+      <c r="I7" s="4">
+        <v>78</v>
+      </c>
+      <c r="J7" s="4">
+        <v>130</v>
+      </c>
+      <c r="K7" s="4">
+        <v>77</v>
+      </c>
+      <c r="L7" s="4">
+        <v>136</v>
+      </c>
+      <c r="M7" s="4">
+        <v>111</v>
+      </c>
+      <c r="N7" s="4">
+        <v>62</v>
+      </c>
+      <c r="O7" s="4">
         <v>72</v>
       </c>
-      <c r="G7" s="4">
-        <v>75</v>
-      </c>
-      <c r="H7" s="4">
-        <v>51</v>
-      </c>
-      <c r="I7" s="4">
-        <v>141</v>
-      </c>
-      <c r="J7" s="4">
-        <v>115</v>
-      </c>
-      <c r="K7" s="4">
-        <v>62</v>
-      </c>
-      <c r="L7" s="4">
-        <v>107</v>
-      </c>
-      <c r="M7" s="4">
-        <v>116</v>
-      </c>
-      <c r="N7" s="4">
-        <v>82</v>
-      </c>
-      <c r="O7" s="4">
-        <v>81</v>
-      </c>
       <c r="P7" s="4">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="5">
         <f>SUM(D7:O7)</f>
@@ -1596,40 +1596,40 @@
         <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="F8" s="4">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="G8" s="4">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="H8" s="4">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="I8" s="4">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J8" s="4">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="K8" s="4">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L8" s="4">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M8" s="4">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="N8" s="4">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="O8" s="4">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="P8" s="4">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="5">
         <f>SUM(D8:O8)</f>
@@ -1646,40 +1646,40 @@
         <v>27</v>
       </c>
       <c r="E9" s="4">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="F9" s="4">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="G9" s="4">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H9" s="4">
+        <v>75</v>
+      </c>
+      <c r="I9" s="4">
+        <v>92</v>
+      </c>
+      <c r="J9" s="4">
+        <v>115</v>
+      </c>
+      <c r="K9" s="4">
         <v>126</v>
       </c>
-      <c r="I9" s="4">
-        <v>58</v>
-      </c>
-      <c r="J9" s="4">
-        <v>66</v>
-      </c>
-      <c r="K9" s="4">
-        <v>144</v>
-      </c>
       <c r="L9" s="4">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="M9" s="4">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="N9" s="4">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="O9" s="4">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="P9" s="4">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="5">
         <f>SUM(D9:O9)</f>
@@ -1696,40 +1696,40 @@
         <v>29</v>
       </c>
       <c r="E10" s="4">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F10" s="4">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="G10" s="4">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="H10" s="4">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="I10" s="4">
+        <v>129</v>
+      </c>
+      <c r="J10" s="4">
+        <v>77</v>
+      </c>
+      <c r="K10" s="4">
+        <v>146</v>
+      </c>
+      <c r="L10" s="4">
+        <v>120</v>
+      </c>
+      <c r="M10" s="4">
+        <v>86</v>
+      </c>
+      <c r="N10" s="4">
+        <v>54</v>
+      </c>
+      <c r="O10" s="4">
         <v>141</v>
       </c>
-      <c r="J10" s="4">
-        <v>142</v>
-      </c>
-      <c r="K10" s="4">
-        <v>129</v>
-      </c>
-      <c r="L10" s="4">
-        <v>102</v>
-      </c>
-      <c r="M10" s="4">
-        <v>50</v>
-      </c>
-      <c r="N10" s="4">
-        <v>144</v>
-      </c>
-      <c r="O10" s="4">
-        <v>75</v>
-      </c>
       <c r="P10" s="4">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(D10:O10)</f>
@@ -1746,40 +1746,40 @@
         <v>31</v>
       </c>
       <c r="E11" s="4">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F11" s="4">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="G11" s="4">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="H11" s="4">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="I11" s="4">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="J11" s="4">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="K11" s="4">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="L11" s="4">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="M11" s="4">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="N11" s="4">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="O11" s="4">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="P11" s="4">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="5">
         <f>SUM(D11:O11)</f>
@@ -1796,40 +1796,40 @@
         <v>33</v>
       </c>
       <c r="E12" s="4">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F12" s="4">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G12" s="4">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H12" s="4">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I12" s="4">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="J12" s="4">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K12" s="4">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="L12" s="4">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="M12" s="4">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="N12" s="4">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="O12" s="4">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="P12" s="4">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="5">
         <f>SUM(D12:O12)</f>
@@ -1846,40 +1846,40 @@
         <v>35</v>
       </c>
       <c r="E13" s="4">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F13" s="4">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="G13" s="4">
+        <v>58</v>
+      </c>
+      <c r="H13" s="4">
+        <v>55</v>
+      </c>
+      <c r="I13" s="4">
+        <v>115</v>
+      </c>
+      <c r="J13" s="4">
+        <v>146</v>
+      </c>
+      <c r="K13" s="4">
+        <v>88</v>
+      </c>
+      <c r="L13" s="4">
         <v>73</v>
       </c>
-      <c r="H13" s="4">
-        <v>50</v>
-      </c>
-      <c r="I13" s="4">
-        <v>62</v>
-      </c>
-      <c r="J13" s="4">
-        <v>97</v>
-      </c>
-      <c r="K13" s="4">
-        <v>103</v>
-      </c>
-      <c r="L13" s="4">
-        <v>137</v>
-      </c>
       <c r="M13" s="4">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="N13" s="4">
-        <v>147</v>
+        <v>83</v>
       </c>
       <c r="O13" s="4">
-        <v>138</v>
+        <v>67</v>
       </c>
       <c r="P13" s="4">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q13" s="5">
         <f>SUM(D13:O13)</f>
@@ -1896,40 +1896,40 @@
         <v>37</v>
       </c>
       <c r="E14" s="4">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F14" s="4">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="G14" s="4">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H14" s="4">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I14" s="4">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="J14" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="K14" s="4">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="L14" s="4">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="M14" s="4">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="N14" s="4">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="O14" s="4">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="P14" s="4">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="5">
         <f>SUM(D14:O14)</f>
@@ -1946,40 +1946,40 @@
         <v>39</v>
       </c>
       <c r="E15" s="4">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G15" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" s="4">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="I15" s="4">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J15" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="K15" s="4">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L15" s="4">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="M15" s="4">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="N15" s="4">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="O15" s="4">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="P15" s="4">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="Q15" s="5">
         <f>SUM(D15:O15)</f>
@@ -1996,40 +1996,40 @@
         <v>41</v>
       </c>
       <c r="E16" s="4">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4">
+        <v>115</v>
+      </c>
+      <c r="G16" s="4">
+        <v>53</v>
+      </c>
+      <c r="H16" s="4">
+        <v>122</v>
+      </c>
+      <c r="I16" s="4">
+        <v>111</v>
+      </c>
+      <c r="J16" s="4">
+        <v>92</v>
+      </c>
+      <c r="K16" s="4">
+        <v>58</v>
+      </c>
+      <c r="L16" s="4">
+        <v>69</v>
+      </c>
+      <c r="M16" s="4">
+        <v>72</v>
+      </c>
+      <c r="N16" s="4">
+        <v>98</v>
+      </c>
+      <c r="O16" s="4">
+        <v>89</v>
+      </c>
+      <c r="P16" s="4">
         <v>56</v>
-      </c>
-      <c r="G16" s="4">
-        <v>86</v>
-      </c>
-      <c r="H16" s="4">
-        <v>94</v>
-      </c>
-      <c r="I16" s="4">
-        <v>119</v>
-      </c>
-      <c r="J16" s="4">
-        <v>98</v>
-      </c>
-      <c r="K16" s="4">
-        <v>116</v>
-      </c>
-      <c r="L16" s="4">
-        <v>95</v>
-      </c>
-      <c r="M16" s="4">
-        <v>115</v>
-      </c>
-      <c r="N16" s="4">
-        <v>146</v>
-      </c>
-      <c r="O16" s="4">
-        <v>143</v>
-      </c>
-      <c r="P16" s="4">
-        <v>97</v>
       </c>
       <c r="Q16" s="5">
         <f>SUM(D16:O16)</f>
@@ -2046,40 +2046,40 @@
         <v>43</v>
       </c>
       <c r="E17" s="4">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="F17" s="4">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="H17" s="4">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I17" s="4">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="J17" s="4">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K17" s="4">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="L17" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M17" s="4">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N17" s="4">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="O17" s="4">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="P17" s="4">
-        <v>146</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="5">
         <f>SUM(D17:O17)</f>
@@ -2096,40 +2096,40 @@
         <v>45</v>
       </c>
       <c r="E18" s="4">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="F18" s="4">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="G18" s="4">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="H18" s="4">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="I18" s="4">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="J18" s="4">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K18" s="4">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="L18" s="4">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="M18" s="4">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="N18" s="4">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="O18" s="4">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="P18" s="4">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="5">
         <f>SUM(D18:O18)</f>
@@ -2206,40 +2206,40 @@
         <v>17</v>
       </c>
       <c r="E4" s="4">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4">
+        <v>99</v>
+      </c>
+      <c r="G4" s="4">
+        <v>77</v>
+      </c>
+      <c r="H4" s="4">
+        <v>62</v>
+      </c>
+      <c r="I4" s="4">
+        <v>136</v>
+      </c>
+      <c r="J4" s="4">
+        <v>102</v>
+      </c>
+      <c r="K4" s="4">
+        <v>60</v>
+      </c>
+      <c r="L4" s="4">
+        <v>64</v>
+      </c>
+      <c r="M4" s="4">
+        <v>131</v>
+      </c>
+      <c r="N4" s="4">
         <v>114</v>
       </c>
-      <c r="G4" s="4">
-        <v>133</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="O4" s="4">
+        <v>59</v>
+      </c>
+      <c r="P4" s="4">
         <v>131</v>
-      </c>
-      <c r="I4" s="4">
-        <v>52</v>
-      </c>
-      <c r="J4" s="4">
-        <v>104</v>
-      </c>
-      <c r="K4" s="4">
-        <v>63</v>
-      </c>
-      <c r="L4" s="4">
-        <v>86</v>
-      </c>
-      <c r="M4" s="4">
-        <v>67</v>
-      </c>
-      <c r="N4" s="4">
-        <v>73</v>
-      </c>
-      <c r="O4" s="4">
-        <v>58</v>
-      </c>
-      <c r="P4" s="4">
-        <v>106</v>
       </c>
       <c r="Q4" s="5">
         <f>SUM(D4:O4)</f>
@@ -2256,40 +2256,40 @@
         <v>19</v>
       </c>
       <c r="E5" s="4">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F5" s="4">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="G5" s="4">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="H5" s="4">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="I5" s="4">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="J5" s="4">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K5" s="4">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L5" s="4">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="M5" s="4">
+        <v>71</v>
+      </c>
+      <c r="N5" s="4">
         <v>130</v>
       </c>
-      <c r="N5" s="4">
-        <v>121</v>
-      </c>
       <c r="O5" s="4">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="P5" s="4">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="Q5" s="5">
         <f>SUM(D5:O5)</f>
@@ -2306,40 +2306,40 @@
         <v>21</v>
       </c>
       <c r="E6" s="4">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="G6" s="4">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="H6" s="4">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="I6" s="4">
+        <v>130</v>
+      </c>
+      <c r="J6" s="4">
+        <v>141</v>
+      </c>
+      <c r="K6" s="4">
+        <v>137</v>
+      </c>
+      <c r="L6" s="4">
+        <v>63</v>
+      </c>
+      <c r="M6" s="4">
+        <v>118</v>
+      </c>
+      <c r="N6" s="4">
+        <v>70</v>
+      </c>
+      <c r="O6" s="4">
+        <v>74</v>
+      </c>
+      <c r="P6" s="4">
         <v>55</v>
-      </c>
-      <c r="J6" s="4">
-        <v>96</v>
-      </c>
-      <c r="K6" s="4">
-        <v>61</v>
-      </c>
-      <c r="L6" s="4">
-        <v>77</v>
-      </c>
-      <c r="M6" s="4">
-        <v>70</v>
-      </c>
-      <c r="N6" s="4">
-        <v>136</v>
-      </c>
-      <c r="O6" s="4">
-        <v>143</v>
-      </c>
-      <c r="P6" s="4">
-        <v>112</v>
       </c>
       <c r="Q6" s="5">
         <f>SUM(D6:O6)</f>
@@ -2356,40 +2356,40 @@
         <v>23</v>
       </c>
       <c r="E7" s="4">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="F7" s="4">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="G7" s="4">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H7" s="4">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="I7" s="4">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="J7" s="4">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K7" s="4">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="L7" s="4">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="M7" s="4">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="N7" s="4">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="O7" s="4">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P7" s="4">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="5">
         <f>SUM(D7:O7)</f>
@@ -2406,40 +2406,40 @@
         <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" s="4">
-        <v>148</v>
+        <v>88</v>
       </c>
       <c r="G8" s="4">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H8" s="4">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="I8" s="4">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J8" s="4">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K8" s="4">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="L8" s="4">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="M8" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N8" s="4">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O8" s="4">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P8" s="4">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="5">
         <f>SUM(D8:O8)</f>
@@ -2456,40 +2456,40 @@
         <v>27</v>
       </c>
       <c r="E9" s="4">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F9" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G9" s="4">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H9" s="4">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="I9" s="4">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="J9" s="4">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="K9" s="4">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="L9" s="4">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="M9" s="4">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="N9" s="4">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="O9" s="4">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="P9" s="4">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="Q9" s="5">
         <f>SUM(D9:O9)</f>
@@ -2506,40 +2506,40 @@
         <v>29</v>
       </c>
       <c r="E10" s="4">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="F10" s="4">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H10" s="4">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I10" s="4">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="J10" s="4">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="K10" s="4">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="L10" s="4">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="M10" s="4">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="N10" s="4">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="O10" s="4">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="P10" s="4">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="Q10" s="5">
         <f>SUM(D10:O10)</f>
@@ -2556,40 +2556,40 @@
         <v>31</v>
       </c>
       <c r="E11" s="4">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="F11" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G11" s="4">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H11" s="4">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="I11" s="4">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="J11" s="4">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="K11" s="4">
-        <v>134</v>
+        <v>50</v>
       </c>
       <c r="L11" s="4">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="M11" s="4">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="N11" s="4">
         <v>130</v>
       </c>
       <c r="O11" s="4">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="P11" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="5">
         <f>SUM(D11:O11)</f>
@@ -2606,40 +2606,40 @@
         <v>33</v>
       </c>
       <c r="E12" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="G12" s="4">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" s="4">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="I12" s="4">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="J12" s="4">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="K12" s="4">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="L12" s="4">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="M12" s="4">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="N12" s="4">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="O12" s="4">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="P12" s="4">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="5">
         <f>SUM(D12:O12)</f>
@@ -2656,40 +2656,40 @@
         <v>35</v>
       </c>
       <c r="E13" s="4">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F13" s="4">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="G13" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="4">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="I13" s="4">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="J13" s="4">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="K13" s="4">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="L13" s="4">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="M13" s="4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" s="4">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="O13" s="4">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="P13" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="5">
         <f>SUM(D13:O13)</f>
@@ -2706,40 +2706,40 @@
         <v>37</v>
       </c>
       <c r="E14" s="4">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="F14" s="4">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="G14" s="4">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="H14" s="4">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="I14" s="4">
+        <v>62</v>
+      </c>
+      <c r="J14" s="4">
         <v>77</v>
       </c>
-      <c r="J14" s="4">
-        <v>80</v>
-      </c>
       <c r="K14" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L14" s="4">
+        <v>128</v>
+      </c>
+      <c r="M14" s="4">
+        <v>122</v>
+      </c>
+      <c r="N14" s="4">
+        <v>91</v>
+      </c>
+      <c r="O14" s="4">
         <v>99</v>
       </c>
-      <c r="M14" s="4">
-        <v>136</v>
-      </c>
-      <c r="N14" s="4">
-        <v>86</v>
-      </c>
-      <c r="O14" s="4">
-        <v>144</v>
-      </c>
       <c r="P14" s="4">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="5">
         <f>SUM(D14:O14)</f>
@@ -2756,40 +2756,40 @@
         <v>39</v>
       </c>
       <c r="E15" s="4">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="H15" s="4">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="I15" s="4">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="J15" s="4">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K15" s="4">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="L15" s="4">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="M15" s="4">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="N15" s="4">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="O15" s="4">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="P15" s="4">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="5">
         <f>SUM(D15:O15)</f>
@@ -2806,40 +2806,40 @@
         <v>41</v>
       </c>
       <c r="E16" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F16" s="4">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="G16" s="4">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H16" s="4">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="I16" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="4">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K16" s="4">
+        <v>98</v>
+      </c>
+      <c r="L16" s="4">
+        <v>50</v>
+      </c>
+      <c r="M16" s="4">
         <v>75</v>
       </c>
-      <c r="L16" s="4">
+      <c r="N16" s="4">
+        <v>106</v>
+      </c>
+      <c r="O16" s="4">
+        <v>102</v>
+      </c>
+      <c r="P16" s="4">
         <v>78</v>
-      </c>
-      <c r="M16" s="4">
-        <v>131</v>
-      </c>
-      <c r="N16" s="4">
-        <v>130</v>
-      </c>
-      <c r="O16" s="4">
-        <v>51</v>
-      </c>
-      <c r="P16" s="4">
-        <v>148</v>
       </c>
       <c r="Q16" s="5">
         <f>SUM(D16:O16)</f>
@@ -2856,40 +2856,40 @@
         <v>43</v>
       </c>
       <c r="E17" s="4">
+        <v>110</v>
+      </c>
+      <c r="F17" s="4">
+        <v>90</v>
+      </c>
+      <c r="G17" s="4">
+        <v>124</v>
+      </c>
+      <c r="H17" s="4">
+        <v>149</v>
+      </c>
+      <c r="I17" s="4">
+        <v>138</v>
+      </c>
+      <c r="J17" s="4">
+        <v>116</v>
+      </c>
+      <c r="K17" s="4">
         <v>118</v>
       </c>
-      <c r="F17" s="4">
-        <v>133</v>
-      </c>
-      <c r="G17" s="4">
-        <v>127</v>
-      </c>
-      <c r="H17" s="4">
-        <v>53</v>
-      </c>
-      <c r="I17" s="4">
-        <v>100</v>
-      </c>
-      <c r="J17" s="4">
-        <v>88</v>
-      </c>
-      <c r="K17" s="4">
-        <v>72</v>
-      </c>
       <c r="L17" s="4">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M17" s="4">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="N17" s="4">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="O17" s="4">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="P17" s="4">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="5">
         <f>SUM(D17:O17)</f>
@@ -2906,40 +2906,40 @@
         <v>45</v>
       </c>
       <c r="E18" s="4">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="F18" s="4">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G18" s="4">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="H18" s="4">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="I18" s="4">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="J18" s="4">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K18" s="4">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="L18" s="4">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="M18" s="4">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="N18" s="4">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="O18" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18" s="4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="5">
         <f>SUM(D18:O18)</f>
